--- a/uploads/resultados_procesados.xlsx
+++ b/uploads/resultados_procesados.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALVAREZ VILLALOBOS DANA VALERIA</t>
+          <t>Elvis Galvis Galvis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -517,29 +517,29 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ALVAREZ VILLALOBOS DANA VALERIA</t>
+          <t>Albert Dayhan Diaz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,7 +568,7 @@
         <v>4.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>4.2</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ALVAREZ VILLALOBOS DANA VALERIA</t>
+          <t>Duvan Gutierrez Lobo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ALVAREZ VILLALOBOS DANA VALERIA</t>
+          <t>Daniela Guzman Perez</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -664,26 +664,26 @@
         <v>4.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
         <v>3.7</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALVAREZ VILLALOBOS DANA VALERIA</t>
+          <t>Perez Carmen Andrea</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ARGUELLO ROMÁN MARGARETH</t>
+          <t>Angulo Juan Camilo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ARGUELLO ROMÁN MARGARETH</t>
+          <t>Cristian Olivar Isaza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ARIAS RAMIREZ ANDREA LILIAM</t>
+          <t>Thania Milena Perez</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ARIAS RAMIREZ ANDREA LILIAM</t>
+          <t>Marlene Ballena Guzman</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ARIAS RAMIREZ ANDREA LILIAM</t>
+          <t>Jose Sierra Guzman</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ARIAS RAMIREZ ANDREA LILIAM</t>
+          <t>Diego Silva Benavides</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ARIAS RAMIREZ ANDREA LILIAM</t>
+          <t>Camilo Andres Daza</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ARIAS RAMIREZ ANDREA LILIAM</t>
+          <t>Jose Castellano Endry</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ARIAS RAMIREZ ANDREA LILIAM</t>
+          <t>Albert Dayhan Diaz</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AVILA SIERRA CATALINA</t>
+          <t>Duvan Gutierrez Lobo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AVILA SIERRA CATALINA</t>
+          <t>Daniela Guzman Perez</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AVILA SIERRA CATALINA</t>
+          <t>Perez Carmen Andrea</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AVILA SIERRA CATALINA</t>
+          <t>Angulo Juan Camilo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AVILA SIERRA CATALINA</t>
+          <t>Cristian Olivar Isaza</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BARRERA NUÑEZ JUAN PABLO</t>
+          <t>Thania Milena Perez</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BARRERA NUÑEZ JUAN PABLO</t>
+          <t>Marlene Ballena Guzman</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BARRERA NUÑEZ JUAN PABLO</t>
+          <t>Jose Sierra Guzman</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BARRERA NUÑEZ JUAN PABLO</t>
+          <t>Diego Silva Benavides</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BARRERA NUÑEZ JUAN PABLO</t>
+          <t>Camilo Andres Daza</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BARRERA NUÑEZ JUAN PABLO</t>
+          <t>Jose Castellano Endry</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BARRERA NUÑEZ JUAN PABLO</t>
+          <t>Albert Dayhan Diaz</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BELTRAN HERNANDEZ LORENA</t>
+          <t>Duvan Gutierrez Lobo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BELTRAN HERNANDEZ LORENA</t>
+          <t>Daniela Guzman Perez</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BELTRAN HERNANDEZ LORENA</t>
+          <t>Perez Carmen Andrea</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
